--- a/analises_dos_dados_preliminares/3-5-2 -----Times mais caros por rodada X Times Escolhidos Pelo algoritmos.xlsx
+++ b/analises_dos_dados_preliminares/3-5-2 -----Times mais caros por rodada X Times Escolhidos Pelo algoritmos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpcrj\OneDrive\Área de Trabalho\Faculdade\TCC_code\sportsAnalytics\analises_dos_dados_preliminares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40066A07-F19A-4042-B9EE-F5196C607EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44185EAA-FD60-4541-8379-CA84053B6360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{FCE826C4-9F25-4A22-BADC-C872D1D1AAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="24" xr2:uid="{FCE826C4-9F25-4A22-BADC-C872D1D1AAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="rodada 01" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,18 @@
     <sheet name="rodada 11" sheetId="12" r:id="rId11"/>
     <sheet name="rodada 12" sheetId="13" r:id="rId12"/>
     <sheet name="rodada 13" sheetId="14" r:id="rId13"/>
+    <sheet name="rodada 14" sheetId="15" r:id="rId14"/>
+    <sheet name="rodada 15" sheetId="16" r:id="rId15"/>
+    <sheet name="rodada 16" sheetId="17" r:id="rId16"/>
+    <sheet name="rodada 17" sheetId="18" r:id="rId17"/>
+    <sheet name="rodada 18" sheetId="19" r:id="rId18"/>
+    <sheet name="rodada 19" sheetId="20" r:id="rId19"/>
+    <sheet name="rodada 20" sheetId="21" r:id="rId20"/>
+    <sheet name="rodada 21" sheetId="22" r:id="rId21"/>
+    <sheet name="rodada 22" sheetId="23" r:id="rId22"/>
+    <sheet name="rodada 23" sheetId="24" r:id="rId23"/>
+    <sheet name="rodada 24" sheetId="25" r:id="rId24"/>
+    <sheet name="rodada 25" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="234">
   <si>
     <t>lat</t>
   </si>
@@ -725,6 +737,30 @@
   </si>
   <si>
     <t>Daniel de Arrascaeta Benedetti</t>
+  </si>
+  <si>
+    <t>Yimmi Javier Chará Zamora</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Tiago dos Santos Alves</t>
+  </si>
+  <si>
+    <t>Tiago Luis Volpi</t>
+  </si>
+  <si>
+    <t>Everton Cardoso da Silva</t>
+  </si>
+  <si>
+    <t>Renato Portaluppi</t>
+  </si>
+  <si>
+    <t>Robert Abel Arboleda Escobar</t>
+  </si>
+  <si>
+    <t>Fábio Gonçalves</t>
   </si>
 </sst>
 </file>
@@ -791,7 +827,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -843,6 +879,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1203,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1211,8 @@
     <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="16.28515625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" style="9" customWidth="1"/>
     <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="3"/>
@@ -1748,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7CBE1B-4383-489B-B1BF-1D6FFA710451}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3390,7 +3433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F081C27E-37E8-4D80-92E9-E492F0FD3FB6}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3908,6 +3951,3250 @@
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6247EA3-31A3-400E-B1B9-2AEF45D308D9}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="1">
+        <v>86757</v>
+      </c>
+      <c r="C2" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="16">
+        <v>86757</v>
+      </c>
+      <c r="H2" s="16">
+        <v>15.1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-0.8</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5.26</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="1">
+        <v>99891</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="16">
+        <v>99891</v>
+      </c>
+      <c r="H3" s="16">
+        <v>12.15</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="1">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14.63</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="16">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="16">
+        <v>14.63</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5.66</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="1">
+        <v>14.82</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.42</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H5" s="16">
+        <v>14.82</v>
+      </c>
+      <c r="I5" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6.42</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>90444</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13.14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="16">
+        <v>90444</v>
+      </c>
+      <c r="H6" s="16">
+        <v>13.14</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5.85</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="16">
+        <v>38648</v>
+      </c>
+      <c r="H7" s="16">
+        <v>14.45</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>98706</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11.22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.93</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="16">
+        <v>87863</v>
+      </c>
+      <c r="H8" s="16">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>20.5</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12.25</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>38648</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>98706</v>
+      </c>
+      <c r="H9" s="16">
+        <v>11.22</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.93</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12.81</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.58</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12.81</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5.32</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="1">
+        <v>87225</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.98</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.33</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="16">
+        <v>60819</v>
+      </c>
+      <c r="H11" s="16">
+        <v>15.47</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5.19</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>60819</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15.47</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.19</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16">
+        <v>69014</v>
+      </c>
+      <c r="H12" s="16">
+        <v>11.82</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>69014</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11.82</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.99</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="16">
+        <v>87225</v>
+      </c>
+      <c r="H13" s="16">
+        <v>8.98</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5.33</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>162.78</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f>SUM(H2:H13)</f>
+        <v>162.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DB3DA1-F79D-4D63-B2EC-FF2F5D3E0CB6}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="19">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="19">
+        <v>21.72</v>
+      </c>
+      <c r="D2" s="19">
+        <v>19</v>
+      </c>
+      <c r="E2" s="19">
+        <v>10.64</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16">
+        <v>78117</v>
+      </c>
+      <c r="H2" s="16">
+        <v>18.52</v>
+      </c>
+      <c r="I2" s="16">
+        <v>11.3</v>
+      </c>
+      <c r="J2" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="19">
+        <v>78117</v>
+      </c>
+      <c r="C3" s="19">
+        <v>18.52</v>
+      </c>
+      <c r="D3" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="E3" s="19">
+        <v>6.46</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="16">
+        <v>83257</v>
+      </c>
+      <c r="H3" s="16">
+        <v>21.72</v>
+      </c>
+      <c r="I3" s="16">
+        <v>19</v>
+      </c>
+      <c r="J3" s="16">
+        <v>10.64</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="19">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="19">
+        <v>14.26</v>
+      </c>
+      <c r="D4" s="19">
+        <v>4</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5.54</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="16">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="16">
+        <v>14.26</v>
+      </c>
+      <c r="I4" s="16">
+        <v>4</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5.54</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="19">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="19">
+        <v>15.1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>8.9</v>
+      </c>
+      <c r="E5" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="16">
+        <v>42500</v>
+      </c>
+      <c r="H5" s="16">
+        <v>13.47</v>
+      </c>
+      <c r="I5" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.22</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="19">
+        <v>42500</v>
+      </c>
+      <c r="C6" s="19">
+        <v>13.47</v>
+      </c>
+      <c r="D6" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6.22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H6" s="16">
+        <v>15.1</v>
+      </c>
+      <c r="I6" s="16">
+        <v>8.9</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="19">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="19">
+        <v>17.18</v>
+      </c>
+      <c r="D7" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>12.11</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="16">
+        <v>87863</v>
+      </c>
+      <c r="H7" s="16">
+        <v>17.18</v>
+      </c>
+      <c r="I7" s="16">
+        <v>11.1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>12.11</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="19">
+        <v>98706</v>
+      </c>
+      <c r="C8" s="19">
+        <v>12.87</v>
+      </c>
+      <c r="D8" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5.49</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="16">
+        <v>92496</v>
+      </c>
+      <c r="H8" s="16">
+        <v>7.54</v>
+      </c>
+      <c r="I8" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="19">
+        <v>92496</v>
+      </c>
+      <c r="C9" s="19">
+        <v>7.54</v>
+      </c>
+      <c r="D9" s="19">
+        <v>4.2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>98706</v>
+      </c>
+      <c r="H9" s="16">
+        <v>12.87</v>
+      </c>
+      <c r="I9" s="16">
+        <v>11.1</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5.49</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="19">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="19">
+        <v>12.46</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1.65</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5.08</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12.46</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1.65</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5.08</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="19">
+        <v>87225</v>
+      </c>
+      <c r="C11" s="19">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="D11" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>5.56</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="16">
+        <v>60819</v>
+      </c>
+      <c r="H11" s="16">
+        <v>15.79</v>
+      </c>
+      <c r="I11" s="16">
+        <v>5</v>
+      </c>
+      <c r="J11" s="16">
+        <v>5.18</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="19">
+        <v>60819</v>
+      </c>
+      <c r="C12" s="19">
+        <v>15.79</v>
+      </c>
+      <c r="D12" s="19">
+        <v>5</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5.18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16">
+        <v>69014</v>
+      </c>
+      <c r="H12" s="16">
+        <v>11.8</v>
+      </c>
+      <c r="I12" s="16">
+        <v>5</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="19">
+        <v>69014</v>
+      </c>
+      <c r="C13" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="D13" s="19">
+        <v>5</v>
+      </c>
+      <c r="E13" s="19">
+        <v>4.99</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="16">
+        <v>87225</v>
+      </c>
+      <c r="H13" s="16">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="I13" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5.56</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>170.49</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="array" ref="G15">SUM(H2:H13)</f>
+        <v>170.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B99C7E-4B88-4F2B-9A89-71369CBF9214}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>78117</v>
+      </c>
+      <c r="H2" s="3">
+        <v>16.52</v>
+      </c>
+      <c r="I2" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>6.02</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>78117</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16.52</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.02</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="3">
+        <v>83257</v>
+      </c>
+      <c r="H3" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="I3" s="16">
+        <v>9</v>
+      </c>
+      <c r="J3" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.65</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="3">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="I4" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5.65</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>12.37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.71</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12.37</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5.71</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="2">
+        <v>78445</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.91</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="3">
+        <v>78445</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8.65</v>
+      </c>
+      <c r="I6" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="J6" s="16">
+        <v>3.91</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17.72</v>
+      </c>
+      <c r="D7" s="2">
+        <v>12.8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="3">
+        <v>85465</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10.9</v>
+      </c>
+      <c r="I7" s="16">
+        <v>6.7</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4.83</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2">
+        <v>85465</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="3">
+        <v>87863</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17.72</v>
+      </c>
+      <c r="I8" s="16">
+        <v>12.8</v>
+      </c>
+      <c r="J8" s="16">
+        <v>12.19</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>92496</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3">
+        <v>92496</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8.65</v>
+      </c>
+      <c r="I9" s="16">
+        <v>9.6</v>
+      </c>
+      <c r="J9" s="16">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13.15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13.15</v>
+      </c>
+      <c r="I10" s="16">
+        <v>6.03</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>69014</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="3">
+        <v>51495</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.59</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2">
+        <v>89493</v>
+      </c>
+      <c r="C12" s="2">
+        <v>9.36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3">
+        <v>69014</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11.07</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="2">
+        <v>51495</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="3">
+        <v>89493</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9.36</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>3.07</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>149.08000000000001</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f>SUM(H2:H13)</f>
+        <v>149.07999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC15942-C7D2-4523-9AA3-09BC7559CD89}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21.71</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="16">
+        <v>78117</v>
+      </c>
+      <c r="H2" s="16">
+        <v>17.29</v>
+      </c>
+      <c r="I2" s="16">
+        <v>5</v>
+      </c>
+      <c r="J2" s="16">
+        <v>5.96</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>78117</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17.29</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.96</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="16">
+        <v>83257</v>
+      </c>
+      <c r="H3" s="16">
+        <v>21.71</v>
+      </c>
+      <c r="I3" s="16">
+        <v>15.4</v>
+      </c>
+      <c r="J3" s="16">
+        <v>10.88</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2">
+        <v>72018</v>
+      </c>
+      <c r="C4" s="2">
+        <v>12.52</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="16">
+        <v>72018</v>
+      </c>
+      <c r="H4" s="16">
+        <v>12.52</v>
+      </c>
+      <c r="I4" s="16">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5.83</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15.36</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.83</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="16">
+        <v>42500</v>
+      </c>
+      <c r="H5" s="16">
+        <v>13.81</v>
+      </c>
+      <c r="I5" s="16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5.96</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42500</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.81</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.96</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H6" s="16">
+        <v>15.36</v>
+      </c>
+      <c r="I6" s="16">
+        <v>10</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6.83</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="2">
+        <v>19.02</v>
+      </c>
+      <c r="D7" s="2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12.73</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="16">
+        <v>87863</v>
+      </c>
+      <c r="H7" s="16">
+        <v>19.02</v>
+      </c>
+      <c r="I7" s="16">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J7" s="16">
+        <v>12.73</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>98706</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="16">
+        <v>92496</v>
+      </c>
+      <c r="H8" s="16">
+        <v>8.74</v>
+      </c>
+      <c r="I8" s="16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.79</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>92496</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.74</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>98706</v>
+      </c>
+      <c r="H9" s="16">
+        <v>11.4</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5.22</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12.84</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3.75</v>
+      </c>
+      <c r="J10" s="16">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2">
+        <v>87225</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.54</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="16">
+        <v>60819</v>
+      </c>
+      <c r="H11" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="I11" s="16">
+        <v>6.6</v>
+      </c>
+      <c r="J11" s="16">
+        <v>5.28</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2">
+        <v>60819</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15.9</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5.28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="16">
+        <v>69014</v>
+      </c>
+      <c r="H12" s="16">
+        <v>11.93</v>
+      </c>
+      <c r="I12" s="16">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4.78</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>69014</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11.93</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="16">
+        <v>87225</v>
+      </c>
+      <c r="H13" s="16">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5.54</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>170.06</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="array" ref="G15">SUM(H2:H13)</f>
+        <v>170.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578550CA-356A-42CD-B983-000FA0F7261C}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21.42</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.94</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="3">
+        <v>83257</v>
+      </c>
+      <c r="H2" s="3">
+        <v>21.42</v>
+      </c>
+      <c r="I2" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="J2" s="16">
+        <v>10.94</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2">
+        <v>86757</v>
+      </c>
+      <c r="C3" s="2">
+        <v>18.98</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="3">
+        <v>86757</v>
+      </c>
+      <c r="H3" s="3">
+        <v>18.98</v>
+      </c>
+      <c r="I3" s="16">
+        <v>23.3</v>
+      </c>
+      <c r="J3" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2">
+        <v>72018</v>
+      </c>
+      <c r="C4" s="2">
+        <v>11.41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.73</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="3">
+        <v>72018</v>
+      </c>
+      <c r="H4" s="3">
+        <v>11.41</v>
+      </c>
+      <c r="I4" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5.73</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>13.91</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.47</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="3">
+        <v>78850</v>
+      </c>
+      <c r="H5" s="3">
+        <v>13.91</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.47</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90444</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15.08</v>
+      </c>
+      <c r="D6" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.76</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3">
+        <v>90444</v>
+      </c>
+      <c r="H6" s="3">
+        <v>15.08</v>
+      </c>
+      <c r="I6" s="16">
+        <v>14.6</v>
+      </c>
+      <c r="J6" s="16">
+        <v>5.76</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="2">
+        <v>85465</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12.02</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
+        <v>51772</v>
+      </c>
+      <c r="H7" s="3">
+        <v>12.63</v>
+      </c>
+      <c r="I7" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="J7" s="16">
+        <v>3.52</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2">
+        <v>92496</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="3">
+        <v>85465</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12.02</v>
+      </c>
+      <c r="I8" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="J8" s="16">
+        <v>5.19</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>51772</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.63</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3">
+        <v>92496</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="I9" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.77</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.97</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12.77</v>
+      </c>
+      <c r="I10" s="16">
+        <v>3.35</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.97</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>80853</v>
+      </c>
+      <c r="C11" s="2">
+        <v>13.01</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3">
+        <v>69014</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10.89</v>
+      </c>
+      <c r="I11" s="16">
+        <v>-0.1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4.45</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="2">
+        <v>87225</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.52</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.93</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3">
+        <v>80853</v>
+      </c>
+      <c r="H12" s="3">
+        <v>13.01</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>6.4</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>69014</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.89</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-0.1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.45</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="3">
+        <v>87225</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8.52</v>
+      </c>
+      <c r="I13" s="16">
+        <v>-0.6</v>
+      </c>
+      <c r="J13" s="16">
+        <v>4.93</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>158.92000000000002</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="array" ref="G15">SUM(H2:H13)</f>
+        <v>158.91999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0BFB1A-A719-42C8-8E37-C759CADE6345}">
+  <dimension ref="A1:AD33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.78</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="16">
+        <v>83257</v>
+      </c>
+      <c r="H2" s="16">
+        <v>20.99</v>
+      </c>
+      <c r="I2" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="J2" s="16">
+        <v>10.78</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2">
+        <v>86757</v>
+      </c>
+      <c r="C3" s="2">
+        <v>17.88</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13.8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="16">
+        <v>86757</v>
+      </c>
+      <c r="H3" s="16">
+        <v>17.88</v>
+      </c>
+      <c r="I3" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="J3" s="16">
+        <v>6.61</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2">
+        <v>72018</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.26</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="16">
+        <v>72018</v>
+      </c>
+      <c r="H4" s="16">
+        <v>10.26</v>
+      </c>
+      <c r="I4" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16.37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.97</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="16">
+        <v>42500</v>
+      </c>
+      <c r="H5" s="16">
+        <v>12.92</v>
+      </c>
+      <c r="I5" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5.78</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42500</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12.92</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.78</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H6" s="16">
+        <v>16.37</v>
+      </c>
+      <c r="I6" s="16">
+        <v>15</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6.97</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16.23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11.63</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="16">
+        <v>87863</v>
+      </c>
+      <c r="H7" s="16">
+        <v>16.23</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="J7" s="16">
+        <v>11.63</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>98706</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.53</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="16">
+        <v>92496</v>
+      </c>
+      <c r="H8" s="16">
+        <v>9.06</v>
+      </c>
+      <c r="I8" s="16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.99</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>92496</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.06</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>98706</v>
+      </c>
+      <c r="H9" s="16">
+        <v>11.53</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5.12</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.74</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12.21</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.62</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.74</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2">
+        <v>87225</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="16">
+        <v>51495</v>
+      </c>
+      <c r="H11" s="16">
+        <v>6.31</v>
+      </c>
+      <c r="I11" s="16">
+        <v>6</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="2">
+        <v>52253</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11.68</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="16">
+        <v>52253</v>
+      </c>
+      <c r="H12" s="16">
+        <v>11.68</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2.9</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="2">
+        <v>51495</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="16">
+        <v>87225</v>
+      </c>
+      <c r="H13" s="16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I13" s="16">
+        <v>6.5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>5.07</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>155.14000000000001</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f>SUM(H2:H13)</f>
+        <v>155.14000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4785,6 +8072,3212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E48A54-92E3-4727-99F3-BB19694420CE}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="16">
+        <v>83257</v>
+      </c>
+      <c r="H2" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="I2" s="16">
+        <v>11.1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>10.8</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2">
+        <v>86757</v>
+      </c>
+      <c r="C3" s="2">
+        <v>19.05</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="16">
+        <v>86757</v>
+      </c>
+      <c r="H3" s="16">
+        <v>19.05</v>
+      </c>
+      <c r="I3" s="16">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J3" s="16">
+        <v>7.36</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14.52</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="16">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="16">
+        <v>14.52</v>
+      </c>
+      <c r="I4" s="16">
+        <v>7.4</v>
+      </c>
+      <c r="J4" s="16">
+        <v>5.25</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.72</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.82</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H5" s="16">
+        <v>14.72</v>
+      </c>
+      <c r="I5" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.82</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90444</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.83</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="16">
+        <v>90444</v>
+      </c>
+      <c r="H6" s="16">
+        <v>13.83</v>
+      </c>
+      <c r="I6" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="J6" s="16">
+        <v>5.5</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11.63</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="16">
+        <v>87863</v>
+      </c>
+      <c r="H7" s="16">
+        <v>18.05</v>
+      </c>
+      <c r="I7" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="J7" s="16">
+        <v>11.63</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>98706</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12.12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.27</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="16">
+        <v>92496</v>
+      </c>
+      <c r="H8" s="16">
+        <v>8.33</v>
+      </c>
+      <c r="I8" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>92496</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>98706</v>
+      </c>
+      <c r="H9" s="16">
+        <v>12.12</v>
+      </c>
+      <c r="I9" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5.27</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.44</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12.44</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2.66</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2">
+        <v>87225</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.93</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="16">
+        <v>69014</v>
+      </c>
+      <c r="H11" s="16">
+        <v>10.93</v>
+      </c>
+      <c r="I11" s="16">
+        <v>1.8</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4.28</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>69014</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10.93</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.28</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="16">
+        <v>87225</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8.93</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4.79</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2">
+        <v>89493</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="16">
+        <v>89493</v>
+      </c>
+      <c r="H13" s="16">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>2.65</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>163.87</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f>SUM(H2:H13)</f>
+        <v>163.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05FEBD3-972B-4C9F-8941-65BF91B2E200}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="17">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="17">
+        <v>21.43</v>
+      </c>
+      <c r="D2" s="17">
+        <v>9.1</v>
+      </c>
+      <c r="E2" s="17">
+        <v>10.7</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="16">
+        <v>83257</v>
+      </c>
+      <c r="H2" s="16">
+        <v>21.43</v>
+      </c>
+      <c r="I2" s="16">
+        <v>9.1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>10.7</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="17">
+        <v>86757</v>
+      </c>
+      <c r="C3" s="17">
+        <v>17.48</v>
+      </c>
+      <c r="D3" s="17">
+        <v>6.9</v>
+      </c>
+      <c r="E3" s="17">
+        <v>7.33</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="16">
+        <v>86757</v>
+      </c>
+      <c r="H3" s="16">
+        <v>17.48</v>
+      </c>
+      <c r="I3" s="16">
+        <v>6.9</v>
+      </c>
+      <c r="J3" s="16">
+        <v>7.33</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="17">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="17">
+        <v>17.32</v>
+      </c>
+      <c r="D4" s="17">
+        <v>21.5</v>
+      </c>
+      <c r="E4" s="17">
+        <v>6.11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="16">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="16">
+        <v>17.32</v>
+      </c>
+      <c r="I4" s="16">
+        <v>21.5</v>
+      </c>
+      <c r="J4" s="16">
+        <v>6.11</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="17">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="17">
+        <v>14.28</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.4</v>
+      </c>
+      <c r="E5" s="17">
+        <v>6.53</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H5" s="16">
+        <v>14.28</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.53</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="17">
+        <v>90444</v>
+      </c>
+      <c r="C6" s="17">
+        <v>15.29</v>
+      </c>
+      <c r="D6" s="17">
+        <v>13.8</v>
+      </c>
+      <c r="E6" s="17">
+        <v>5.99</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="16">
+        <v>90444</v>
+      </c>
+      <c r="H6" s="16">
+        <v>15.29</v>
+      </c>
+      <c r="I6" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="J6" s="16">
+        <v>5.99</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="17">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="17">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="D7" s="17">
+        <v>16.7</v>
+      </c>
+      <c r="E7" s="17">
+        <v>12.02</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50301</v>
+      </c>
+      <c r="H7" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="16">
+        <v>1.68</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17">
+        <v>51772</v>
+      </c>
+      <c r="C8" s="17">
+        <v>12.75</v>
+      </c>
+      <c r="D8" s="17">
+        <v>5.7</v>
+      </c>
+      <c r="E8" s="17">
+        <v>4.13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16">
+        <v>51772</v>
+      </c>
+      <c r="H8" s="16">
+        <v>12.75</v>
+      </c>
+      <c r="I8" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.13</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="17">
+        <v>50301</v>
+      </c>
+      <c r="C9" s="17">
+        <v>7.34</v>
+      </c>
+      <c r="D9" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.68</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="16">
+        <v>87863</v>
+      </c>
+      <c r="H9" s="16">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="I9" s="16">
+        <v>16.7</v>
+      </c>
+      <c r="J9" s="16">
+        <v>12.02</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="17">
+        <v>41929</v>
+      </c>
+      <c r="C10" s="17">
+        <v>12.96</v>
+      </c>
+      <c r="D10" s="17">
+        <v>7.47</v>
+      </c>
+      <c r="E10" s="17">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="16">
+        <v>41929</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12.96</v>
+      </c>
+      <c r="I10" s="16">
+        <v>7.47</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="17">
+        <v>60819</v>
+      </c>
+      <c r="C11" s="17">
+        <v>14.98</v>
+      </c>
+      <c r="D11" s="17">
+        <v>3.2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>5.14</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="16">
+        <v>51495</v>
+      </c>
+      <c r="H11" s="16">
+        <v>6.29</v>
+      </c>
+      <c r="I11" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="J11" s="16">
+        <v>1.93</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="17">
+        <v>51495</v>
+      </c>
+      <c r="C12" s="17">
+        <v>6.29</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5.4</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1.93</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="16">
+        <v>60819</v>
+      </c>
+      <c r="H12" s="16">
+        <v>14.98</v>
+      </c>
+      <c r="I12" s="16">
+        <v>3.2</v>
+      </c>
+      <c r="J12" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="17">
+        <v>91573</v>
+      </c>
+      <c r="C13" s="17">
+        <v>5.98</v>
+      </c>
+      <c r="D13" s="17">
+        <v>-0.5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1.77</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="16">
+        <v>91573</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5.98</v>
+      </c>
+      <c r="I13" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="J13" s="16">
+        <v>1.77</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>165.42999999999995</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="array" ref="G15">SUM(H2:H13)</f>
+        <v>165.42999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323F04F-9C52-4732-BF38-EBACD29AC8E0}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2">
+        <v>83257</v>
+      </c>
+      <c r="C2" s="2">
+        <v>19.48</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-3.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9.93</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="16">
+        <v>83257</v>
+      </c>
+      <c r="H2" s="16">
+        <v>19.48</v>
+      </c>
+      <c r="I2" s="16">
+        <v>-3.1</v>
+      </c>
+      <c r="J2" s="16">
+        <v>9.93</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2">
+        <v>91607</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13.57</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.22</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="16">
+        <v>91607</v>
+      </c>
+      <c r="H3" s="16">
+        <v>13.57</v>
+      </c>
+      <c r="I3" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="J3" s="16">
+        <v>5.22</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15.58</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="16">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="16">
+        <v>15.58</v>
+      </c>
+      <c r="I4" s="16">
+        <v>8</v>
+      </c>
+      <c r="J4" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15.39</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H5" s="16">
+        <v>15.39</v>
+      </c>
+      <c r="I5" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.56</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90444</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14.09</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.92</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="16">
+        <v>90444</v>
+      </c>
+      <c r="H6" s="16">
+        <v>14.09</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="J6" s="16">
+        <v>5.92</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2">
+        <v>87863</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="16">
+        <v>87863</v>
+      </c>
+      <c r="H7" s="16">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="I7" s="16">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J7" s="16">
+        <v>11.75</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>98706</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.86</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="16">
+        <v>92496</v>
+      </c>
+      <c r="H8" s="16">
+        <v>7.85</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.63</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2">
+        <v>92496</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7.85</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.63</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>98706</v>
+      </c>
+      <c r="H9" s="16">
+        <v>11.86</v>
+      </c>
+      <c r="I9" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5.22</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13.16</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>13.16</v>
+      </c>
+      <c r="I10" s="16">
+        <v>6.18</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.57</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>60819</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.38</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.78</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="16">
+        <v>52253</v>
+      </c>
+      <c r="H11" s="16">
+        <v>12.92</v>
+      </c>
+      <c r="I11" s="16">
+        <v>10.1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4.46</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="2">
+        <v>52253</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12.92</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.46</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="16">
+        <v>60819</v>
+      </c>
+      <c r="H12" s="16">
+        <v>14.38</v>
+      </c>
+      <c r="I12" s="16">
+        <v>-0.6</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4.78</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>69014</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11.69</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="16">
+        <v>69014</v>
+      </c>
+      <c r="H13" s="16">
+        <v>11.69</v>
+      </c>
+      <c r="I13" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="J13" s="16">
+        <v>4.38</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>168.32</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f>SUM(H2:H13)</f>
+        <v>168.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712EB867-DA09-4F3D-8D54-7A67E064355C}">
+  <dimension ref="A1:AD16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2">
+        <v>86757</v>
+      </c>
+      <c r="C2" s="2">
+        <v>17.27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.22</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="16">
+        <v>86757</v>
+      </c>
+      <c r="H2" s="16">
+        <v>17.27</v>
+      </c>
+      <c r="I2" s="16">
+        <v>5.3</v>
+      </c>
+      <c r="J2" s="16">
+        <v>7.22</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="2">
+        <v>91607</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13.34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="16">
+        <v>91607</v>
+      </c>
+      <c r="H3" s="16">
+        <v>13.34</v>
+      </c>
+      <c r="I3" s="16">
+        <v>5.7</v>
+      </c>
+      <c r="J3" s="16">
+        <v>5.25</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17.34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.71</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="16">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="16">
+        <v>17.34</v>
+      </c>
+      <c r="I4" s="16">
+        <v>17</v>
+      </c>
+      <c r="J4" s="16">
+        <v>6.71</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="16">
+        <v>42500</v>
+      </c>
+      <c r="H5" s="16">
+        <v>14.47</v>
+      </c>
+      <c r="I5" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5.97</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42500</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14.47</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.97</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="16">
+        <v>78850</v>
+      </c>
+      <c r="H6" s="16">
+        <v>14.32</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6.29</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2">
+        <v>98706</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11.54</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="16">
+        <v>38648</v>
+      </c>
+      <c r="H7" s="16">
+        <v>13.31</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>51772</v>
+      </c>
+      <c r="C8" s="2">
+        <v>12.93</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="16">
+        <v>51772</v>
+      </c>
+      <c r="H8" s="16">
+        <v>12.93</v>
+      </c>
+      <c r="I8" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>38648</v>
+      </c>
+      <c r="C9" s="2">
+        <v>13.31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="16">
+        <v>98706</v>
+      </c>
+      <c r="H9" s="16">
+        <v>11.54</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2.6</v>
+      </c>
+      <c r="J9" s="16">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.91</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="16">
+        <v>12.91</v>
+      </c>
+      <c r="I10" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2">
+        <v>69014</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12.01</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="16">
+        <v>69014</v>
+      </c>
+      <c r="H11" s="16">
+        <v>12.01</v>
+      </c>
+      <c r="I11" s="16">
+        <v>7.2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4.54</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2">
+        <v>89493</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8.51</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.31</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="16">
+        <v>89493</v>
+      </c>
+      <c r="H12" s="16">
+        <v>8.51</v>
+      </c>
+      <c r="I12" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="J12" s="16">
+        <v>2.31</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="2">
+        <v>91573</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.57</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G13" s="16">
+        <v>91573</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6.57</v>
+      </c>
+      <c r="I13" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J13" s="16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>154.51999999999998</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="16">
+        <f>SUM(H2:H13)</f>
+        <v>154.51999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4518ED8E-2FC7-434A-B4AA-31018949EA7F}">
+  <dimension ref="A1:AD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2">
+        <v>91607</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13.11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>78117</v>
+      </c>
+      <c r="H2" s="3">
+        <v>15.95</v>
+      </c>
+      <c r="I2" s="16">
+        <v>2.4</v>
+      </c>
+      <c r="J2" s="16">
+        <v>4.62</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>78117</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15.95</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3">
+        <v>91607</v>
+      </c>
+      <c r="H3" s="3">
+        <v>13.11</v>
+      </c>
+      <c r="I3" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="J3" s="16">
+        <v>5.21</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15.11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.54</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="3">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="3">
+        <v>15.11</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>6.54</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.58</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="3">
+        <v>78850</v>
+      </c>
+      <c r="H5" s="3">
+        <v>14.58</v>
+      </c>
+      <c r="I5" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6.15</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2">
+        <v>90444</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.92</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.65</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3">
+        <v>90444</v>
+      </c>
+      <c r="H6" s="3">
+        <v>13.92</v>
+      </c>
+      <c r="I6" s="16">
+        <v>4.5</v>
+      </c>
+      <c r="J6" s="16">
+        <v>5.65</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2">
+        <v>92496</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.94</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>38648</v>
+      </c>
+      <c r="H7" s="3">
+        <v>13.71</v>
+      </c>
+      <c r="I7" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>38648</v>
+      </c>
+      <c r="C8" s="2">
+        <v>13.71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>51772</v>
+      </c>
+      <c r="H8" s="3">
+        <v>12.07</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="16">
+        <v>4.12</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>51772</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12.07</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3">
+        <v>92496</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7.94</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="J9" s="16">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="2">
+        <v>70800</v>
+      </c>
+      <c r="C10" s="2">
+        <v>13.18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.63</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3">
+        <v>70800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>13.18</v>
+      </c>
+      <c r="I10" s="16">
+        <v>6.16</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.63</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>80853</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14.22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="3">
+        <v>60819</v>
+      </c>
+      <c r="H11" s="3">
+        <v>15.21</v>
+      </c>
+      <c r="I11" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2">
+        <v>60819</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15.21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3">
+        <v>69014</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11.07</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="J12" s="16">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>69014</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11.07</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3">
+        <v>80853</v>
+      </c>
+      <c r="H13" s="3">
+        <v>14.22</v>
+      </c>
+      <c r="I13" s="16">
+        <v>11.2</v>
+      </c>
+      <c r="J13" s="16">
+        <v>6.84</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(C2:C14)</f>
+        <v>160.07</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="16">
+        <f>SUM(H2:H14)</f>
+        <v>160.07</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F29F16-8698-4C27-BAF1-9E24D4572B85}">
+  <dimension ref="A1:AD17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="22" style="16" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2">
+        <v>91607</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12.68</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3">
+        <v>73741</v>
+      </c>
+      <c r="H2" s="3">
+        <v>13.02</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>73741</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13.02</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3">
+        <v>91607</v>
+      </c>
+      <c r="H3" s="3">
+        <v>12.68</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="J3" s="16">
+        <v>5.07</v>
+      </c>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2">
+        <v>82453</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.73</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="3">
+        <v>82453</v>
+      </c>
+      <c r="H4" s="3">
+        <v>16.34</v>
+      </c>
+      <c r="I4" s="16">
+        <v>11</v>
+      </c>
+      <c r="J4" s="16">
+        <v>6.73</v>
+      </c>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="2">
+        <v>78850</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.78</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3">
+        <v>42500</v>
+      </c>
+      <c r="H5" s="3">
+        <v>12.84</v>
+      </c>
+      <c r="I5" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5.43</v>
+      </c>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42500</v>
+      </c>
+      <c r="C6" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.43</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="3">
+        <v>78850</v>
+      </c>
+      <c r="H6" s="3">
+        <v>17.510000000000002</v>
+      </c>
+      <c r="I6" s="16">
+        <v>20.7</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>38648</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13.76</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4.28</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>38648</v>
+      </c>
+      <c r="H7" s="3">
+        <v>13.76</v>
+      </c>
+      <c r="I7" s="16">
+        <v>5.2</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4.28</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>51772</v>
+      </c>
+      <c r="C8" s="2">
+        <v>11.52</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1.3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.86</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>51772</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11.52</v>
+      </c>
+      <c r="I8" s="16">
+        <v>-1.3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>3.86</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="2">
+        <v>80393</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5.96</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1.7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G9" s="3">
+        <v>80393</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.96</v>
+      </c>
+      <c r="I9" s="16">
+        <v>-1.7</v>
+      </c>
+      <c r="J9" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="2">
+        <v>41929</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12.95</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7.16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.62</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="3">
+        <v>41929</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12.95</v>
+      </c>
+      <c r="I10" s="16">
+        <v>7.16</v>
+      </c>
+      <c r="J10" s="16">
+        <v>4.62</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>80853</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12.24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="3">
+        <v>52253</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11.76</v>
+      </c>
+      <c r="I11" s="16">
+        <v>4.2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2">
+        <v>60819</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16.07</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3">
+        <v>60819</v>
+      </c>
+      <c r="H12" s="3">
+        <v>16.07</v>
+      </c>
+      <c r="I12" s="16">
+        <v>11.5</v>
+      </c>
+      <c r="J12" s="16">
+        <v>5.23</v>
+      </c>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="2">
+        <v>52253</v>
+      </c>
+      <c r="C13" s="2">
+        <v>11.76</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="3">
+        <v>80853</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12.24</v>
+      </c>
+      <c r="I13" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="J13" s="16">
+        <v>6.25</v>
+      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(C2:C14)</f>
+        <v>156.64999999999998</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="16">
+        <f>SUM(H2:H14)</f>
+        <v>156.65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343FCF82-A65A-457A-8815-AE782A776480}">
   <dimension ref="A1:AD16"/>

--- a/analises_dos_dados_preliminares/3-5-2 -----Times mais caros por rodada X Times Escolhidos Pelo algoritmos.xlsx
+++ b/analises_dos_dados_preliminares/3-5-2 -----Times mais caros por rodada X Times Escolhidos Pelo algoritmos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Documents\Diogo Pé\CEFET\TCC\Codigos\analises_dos_dados_preliminares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpcrj\OneDrive\Área de Trabalho\Faculdade\TCC_code\sportsAnalytics\analises_dos_dados_preliminares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C271698-32E6-4014-B42E-1ED5B30A169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90609E1B-0F28-4F8E-ABCC-BB5613BB98EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="26" activeTab="28" xr2:uid="{FCE826C4-9F25-4A22-BADC-C872D1D1AAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCE826C4-9F25-4A22-BADC-C872D1D1AAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="rodada 01" sheetId="1" r:id="rId1"/>
@@ -1550,7 +1550,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1848,23 +1848,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1046F832-8E61-433C-93F2-75B588D9EEEA}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2408,7 +2408,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>134.66</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
     </row>
   </sheetData>
@@ -2441,19 +2441,19 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -2605,7 +2605,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -2641,7 +2641,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -2677,7 +2677,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2749,7 +2749,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>209</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -2929,14 +2929,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>171.85</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -2970,19 +2970,19 @@
       <selection activeCell="A25" sqref="A25:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3098,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3170,7 +3170,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
@@ -3206,7 +3206,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3242,7 +3242,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3350,7 +3350,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -3386,7 +3386,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>207</v>
       </c>
@@ -3458,14 +3458,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -3481,62 +3481,62 @@
         <v>158.66000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
     </row>
   </sheetData>
@@ -3553,19 +3553,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -3681,7 +3681,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -3861,7 +3861,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -3897,7 +3897,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>209</v>
       </c>
@@ -4005,7 +4005,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4041,14 +4041,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>161.31999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
       <c r="G16" s="10"/>
@@ -4083,19 +4083,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -4247,7 +4247,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4283,7 +4283,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -4499,7 +4499,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -4571,14 +4571,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>165.47999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -4612,19 +4612,19 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>149</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>226</v>
       </c>
@@ -4740,7 +4740,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>193</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>155</v>
       </c>
@@ -4812,7 +4812,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -4848,7 +4848,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
@@ -4992,7 +4992,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>209</v>
       </c>
@@ -5028,7 +5028,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -5100,14 +5100,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>162.78</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -5141,19 +5141,19 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>134</v>
       </c>
@@ -5233,7 +5233,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>13</v>
       </c>
@@ -5269,7 +5269,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>193</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>155</v>
       </c>
@@ -5341,7 +5341,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>46</v>
       </c>
@@ -5377,7 +5377,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>62</v>
       </c>
@@ -5413,7 +5413,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>70</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>91</v>
       </c>
@@ -5521,7 +5521,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>209</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>55</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>26</v>
       </c>
@@ -5629,14 +5629,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>170.49</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -5670,20 +5670,20 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -5763,7 +5763,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5871,7 +5871,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>196</v>
       </c>
@@ -5907,7 +5907,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -6087,7 +6087,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -6123,7 +6123,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>228</v>
       </c>
@@ -6159,14 +6159,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>149.07999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -6200,20 +6200,20 @@
       <selection activeCell="A24" sqref="A24:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>229</v>
       </c>
@@ -6365,7 +6365,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -6401,7 +6401,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -6509,7 +6509,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -6617,7 +6617,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -6653,7 +6653,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -6689,14 +6689,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>170.06</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -6730,20 +6730,20 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -6823,7 +6823,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>229</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -7003,7 +7003,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>209</v>
       </c>
@@ -7183,7 +7183,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -7219,14 +7219,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>158.91999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -7260,20 +7260,20 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -7353,7 +7353,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -7389,7 +7389,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>229</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -7497,7 +7497,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -7533,7 +7533,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -7641,7 +7641,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -7677,7 +7677,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
@@ -7713,7 +7713,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>228</v>
       </c>
@@ -7749,14 +7749,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -7772,36 +7772,36 @@
         <v>155.14000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
@@ -7809,32 +7809,32 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>11</v>
       </c>
@@ -7856,19 +7856,19 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -8440,14 +8440,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -8463,10 +8463,10 @@
         <v>160.41</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>0</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>1</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>2</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>3</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>4</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>5</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>6</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>7</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>8</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>9</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>10</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>11</v>
       </c>
@@ -8726,20 +8726,20 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -8891,7 +8891,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -8927,7 +8927,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -8963,7 +8963,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -9035,7 +9035,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -9071,7 +9071,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -9107,7 +9107,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>209</v>
       </c>
@@ -9143,7 +9143,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -9215,14 +9215,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>163.87</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -9256,20 +9256,20 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>134</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>149</v>
       </c>
@@ -9385,7 +9385,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>193</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>155</v>
       </c>
@@ -9457,7 +9457,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>40</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>62</v>
       </c>
@@ -9529,7 +9529,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>230</v>
       </c>
@@ -9601,7 +9601,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>231</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>55</v>
       </c>
@@ -9673,7 +9673,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>228</v>
       </c>
@@ -9709,7 +9709,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>232</v>
       </c>
@@ -9745,14 +9745,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>165.42999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -9786,20 +9786,20 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -9879,7 +9879,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -9915,7 +9915,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -9951,7 +9951,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -10023,7 +10023,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -10059,7 +10059,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -10095,7 +10095,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
@@ -10131,7 +10131,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -10167,7 +10167,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -10203,7 +10203,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>207</v>
       </c>
@@ -10239,7 +10239,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -10275,14 +10275,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>168.32</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -10316,20 +10316,20 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>149</v>
       </c>
@@ -10409,7 +10409,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -10445,7 +10445,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -10481,7 +10481,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -10517,7 +10517,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -10553,7 +10553,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -10625,7 +10625,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -10661,7 +10661,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -10697,7 +10697,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -10733,7 +10733,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>77</v>
       </c>
@@ -10769,7 +10769,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
@@ -10805,14 +10805,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>154.51999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -10846,20 +10846,20 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -10939,7 +10939,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -10975,7 +10975,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -11011,7 +11011,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -11047,7 +11047,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -11119,7 +11119,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -11155,7 +11155,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -11191,7 +11191,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -11227,7 +11227,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -11263,7 +11263,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -11299,7 +11299,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -11335,7 +11335,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11348,14 +11348,14 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>160.07</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="10"/>
     </row>
@@ -11389,20 +11389,20 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -11446,7 +11446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -11482,7 +11482,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -11518,7 +11518,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -11554,7 +11554,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>155</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -11626,7 +11626,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -11662,7 +11662,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -11698,7 +11698,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>233</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>231</v>
       </c>
@@ -11770,7 +11770,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -11806,7 +11806,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -11842,7 +11842,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>207</v>
       </c>
@@ -11878,7 +11878,7 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -11891,14 +11891,14 @@
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>156.65</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="10"/>
     </row>
@@ -11932,20 +11932,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>134</v>
       </c>
@@ -12025,7 +12025,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>149</v>
       </c>
@@ -12061,7 +12061,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>193</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>155</v>
       </c>
@@ -12133,7 +12133,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>46</v>
       </c>
@@ -12169,7 +12169,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>21</v>
       </c>
@@ -12205,7 +12205,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>8</v>
       </c>
@@ -12241,7 +12241,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>233</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>91</v>
       </c>
@@ -12313,7 +12313,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>25</v>
       </c>
@@ -12349,7 +12349,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -12385,7 +12385,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>207</v>
       </c>
@@ -12421,13 +12421,13 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="I14" s="9"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -12443,66 +12443,66 @@
         <v>166.79000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>11</v>
       </c>
@@ -12521,20 +12521,20 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -12614,7 +12614,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -12650,7 +12650,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -12686,7 +12686,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>46</v>
       </c>
@@ -12722,7 +12722,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>196</v>
       </c>
@@ -12758,7 +12758,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
@@ -12830,7 +12830,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -12866,7 +12866,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>231</v>
       </c>
@@ -12902,7 +12902,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>207</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>232</v>
       </c>
@@ -12974,7 +12974,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>77</v>
       </c>
@@ -13010,8 +13010,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -13027,66 +13027,66 @@
         <v>153.89999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -13105,20 +13105,20 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -13198,7 +13198,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -13234,7 +13234,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -13270,7 +13270,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -13306,7 +13306,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>180</v>
       </c>
@@ -13342,7 +13342,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -13378,7 +13378,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>89</v>
       </c>
@@ -13414,7 +13414,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>21</v>
       </c>
@@ -13450,7 +13450,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>231</v>
       </c>
@@ -13486,7 +13486,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
@@ -13522,7 +13522,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>207</v>
       </c>
@@ -13558,7 +13558,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
@@ -13594,13 +13594,13 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -13616,66 +13616,66 @@
         <v>168.59</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -13690,24 +13690,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72A11A5-341A-436B-ADF7-A92B74FCFE6E}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -13787,7 +13787,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -13823,7 +13823,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -13859,7 +13859,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -13895,7 +13895,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
@@ -13931,7 +13931,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -13967,7 +13967,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -14003,7 +14003,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>89</v>
       </c>
@@ -14039,7 +14039,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>231</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>207</v>
       </c>
@@ -14111,7 +14111,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>26</v>
       </c>
@@ -14147,7 +14147,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>232</v>
       </c>
@@ -14183,8 +14183,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>165.36999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -14218,19 +14218,19 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -14274,7 +14274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
@@ -14494,7 +14494,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>70</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -14814,7 +14814,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -14830,7 +14830,7 @@
         <v>153.76</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
     </row>
   </sheetData>
@@ -14847,20 +14847,20 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>149</v>
       </c>
@@ -14940,7 +14940,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>82</v>
       </c>
@@ -14976,7 +14976,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -15012,7 +15012,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -15048,7 +15048,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
@@ -15084,7 +15084,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -15120,7 +15120,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -15156,7 +15156,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>89</v>
       </c>
@@ -15192,7 +15192,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>231</v>
       </c>
@@ -15228,7 +15228,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
@@ -15264,7 +15264,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>207</v>
       </c>
@@ -15300,7 +15300,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>232</v>
       </c>
@@ -15336,8 +15336,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -15353,66 +15353,66 @@
         <v>164.01</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -15431,20 +15431,20 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -15488,7 +15488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -15524,7 +15524,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -15560,7 +15560,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -15596,7 +15596,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -15632,7 +15632,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
@@ -15668,7 +15668,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
@@ -15704,7 +15704,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>89</v>
       </c>
@@ -15740,7 +15740,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>70</v>
       </c>
@@ -15776,7 +15776,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>231</v>
       </c>
@@ -15812,7 +15812,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
@@ -15848,7 +15848,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>207</v>
       </c>
@@ -15884,7 +15884,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
@@ -15920,8 +15920,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -15937,66 +15937,66 @@
         <v>165.14</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -16015,20 +16015,20 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -16108,7 +16108,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -16144,7 +16144,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -16180,7 +16180,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -16216,7 +16216,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
@@ -16252,7 +16252,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
@@ -16288,7 +16288,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>70</v>
       </c>
@@ -16324,7 +16324,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>89</v>
       </c>
@@ -16360,7 +16360,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>91</v>
       </c>
@@ -16396,7 +16396,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>207</v>
       </c>
@@ -16432,7 +16432,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>26</v>
       </c>
@@ -16468,7 +16468,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>232</v>
       </c>
@@ -16504,8 +16504,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -16521,66 +16521,66 @@
         <v>160.08999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -16599,20 +16599,20 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -16692,7 +16692,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -16728,7 +16728,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -16764,7 +16764,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -16800,7 +16800,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>46</v>
       </c>
@@ -16836,7 +16836,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -16872,7 +16872,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>70</v>
       </c>
@@ -16908,7 +16908,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>89</v>
       </c>
@@ -16944,7 +16944,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>91</v>
       </c>
@@ -16980,7 +16980,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
@@ -17016,7 +17016,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>207</v>
       </c>
@@ -17052,7 +17052,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
@@ -17088,8 +17088,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -17105,66 +17105,66 @@
         <v>166.17000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -17183,20 +17183,20 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>149</v>
       </c>
@@ -17276,7 +17276,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>13</v>
       </c>
@@ -17312,7 +17312,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -17348,7 +17348,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -17384,7 +17384,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>46</v>
       </c>
@@ -17420,7 +17420,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
@@ -17456,7 +17456,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>89</v>
       </c>
@@ -17492,7 +17492,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>233</v>
       </c>
@@ -17528,7 +17528,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>91</v>
       </c>
@@ -17564,7 +17564,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
@@ -17600,7 +17600,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>209</v>
       </c>
@@ -17636,7 +17636,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
@@ -17672,8 +17672,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -17689,66 +17689,66 @@
         <v>151.15999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -17767,20 +17767,20 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>149</v>
       </c>
@@ -17860,7 +17860,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>82</v>
       </c>
@@ -17896,7 +17896,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -17932,7 +17932,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -17968,7 +17968,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>46</v>
       </c>
@@ -18004,7 +18004,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -18040,7 +18040,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -18076,7 +18076,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>89</v>
       </c>
@@ -18112,7 +18112,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>91</v>
       </c>
@@ -18148,7 +18148,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
@@ -18184,7 +18184,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>207</v>
       </c>
@@ -18220,7 +18220,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
@@ -18256,13 +18256,13 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -18278,66 +18278,66 @@
         <v>167.14000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -18356,20 +18356,20 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -18449,7 +18449,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -18485,7 +18485,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -18521,7 +18521,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -18557,7 +18557,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>46</v>
       </c>
@@ -18593,7 +18593,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -18629,7 +18629,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -18665,7 +18665,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>89</v>
       </c>
@@ -18701,7 +18701,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>91</v>
       </c>
@@ -18737,7 +18737,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>25</v>
       </c>
@@ -18773,7 +18773,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>207</v>
       </c>
@@ -18809,7 +18809,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>26</v>
       </c>
@@ -18845,8 +18845,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -18862,66 +18862,66 @@
         <v>175.4</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>11</v>
       </c>
@@ -18940,20 +18940,20 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -19033,7 +19033,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>149</v>
       </c>
@@ -19069,7 +19069,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>155</v>
       </c>
@@ -19141,7 +19141,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>46</v>
       </c>
@@ -19177,7 +19177,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -19213,7 +19213,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>70</v>
       </c>
@@ -19249,7 +19249,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -19285,7 +19285,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>231</v>
       </c>
@@ -19321,7 +19321,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>207</v>
       </c>
@@ -19357,7 +19357,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>26</v>
       </c>
@@ -19393,7 +19393,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>232</v>
       </c>
@@ -19429,8 +19429,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -19446,36 +19446,36 @@
         <v>165.75</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>6</v>
       </c>
@@ -19491,27 +19491,27 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>11</v>
       </c>
@@ -19527,23 +19527,23 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="16" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="16"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>134</v>
       </c>
@@ -19610,7 +19610,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>405</v>
       </c>
@@ -19633,7 +19633,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>193</v>
       </c>
@@ -19656,7 +19656,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>46</v>
       </c>
@@ -19679,7 +19679,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>40</v>
       </c>
@@ -19702,7 +19702,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>62</v>
       </c>
@@ -19725,7 +19725,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>70</v>
       </c>
@@ -19748,7 +19748,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>20</v>
       </c>
@@ -19771,7 +19771,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>91</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>209</v>
       </c>
@@ -19817,7 +19817,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>416</v>
       </c>
@@ -19840,7 +19840,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -19853,8 +19853,8 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -19888,19 +19888,19 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -20120,7 +20120,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>180</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -20384,7 +20384,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -20428,7 +20428,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -20472,14 +20472,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -20495,44 +20495,44 @@
         <v>164.79</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
   </sheetData>
@@ -20549,19 +20549,19 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="43" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -20641,7 +20641,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -20677,7 +20677,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -20713,7 +20713,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -20749,7 +20749,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -20785,7 +20785,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -20821,7 +20821,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -20857,7 +20857,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -20893,7 +20893,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -20929,7 +20929,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -20965,7 +20965,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -21001,7 +21001,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -21037,14 +21037,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -21060,17 +21060,17 @@
         <v>165.46</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G24" s="1"/>
     </row>
   </sheetData>
@@ -21087,19 +21087,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -21143,7 +21143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -21179,7 +21179,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>149</v>
       </c>
@@ -21215,7 +21215,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>67</v>
       </c>
@@ -21251,7 +21251,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -21287,7 +21287,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -21323,7 +21323,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -21359,7 +21359,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -21395,7 +21395,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
@@ -21431,7 +21431,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -21467,7 +21467,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -21503,7 +21503,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -21539,7 +21539,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -21575,14 +21575,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -21598,14 +21598,14 @@
         <v>169.59</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G23" s="1"/>
     </row>
   </sheetData>
@@ -21622,19 +21622,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -21714,7 +21714,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
@@ -21750,7 +21750,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -21786,7 +21786,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -21822,7 +21822,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
@@ -21858,7 +21858,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>62</v>
       </c>
@@ -21894,7 +21894,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -21930,7 +21930,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -21966,7 +21966,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>125</v>
       </c>
@@ -22002,7 +22002,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -22038,7 +22038,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -22074,7 +22074,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -22110,14 +22110,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -22133,7 +22133,7 @@
         <v>154.86999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -22151,19 +22151,19 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -22207,7 +22207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
@@ -22243,7 +22243,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
@@ -22279,7 +22279,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>152</v>
       </c>
@@ -22315,7 +22315,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -22351,7 +22351,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>155</v>
       </c>
@@ -22387,7 +22387,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -22423,7 +22423,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>158</v>
       </c>
@@ -22459,7 +22459,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -22495,7 +22495,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -22531,7 +22531,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -22567,7 +22567,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -22603,7 +22603,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
@@ -22639,14 +22639,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>154.32000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
@@ -22680,19 +22680,19 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.44140625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>134</v>
       </c>
@@ -22772,7 +22772,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
@@ -22808,7 +22808,7 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>193</v>
       </c>
@@ -22844,7 +22844,7 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -22880,7 +22880,7 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>196</v>
       </c>
@@ -22916,7 +22916,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -22952,7 +22952,7 @@
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
@@ -22988,7 +22988,7 @@
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -23024,7 +23024,7 @@
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>91</v>
       </c>
@@ -23060,7 +23060,7 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -23096,7 +23096,7 @@
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -23132,7 +23132,7 @@
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>207</v>
       </c>
@@ -23168,14 +23168,14 @@
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -23191,48 +23191,48 @@
         <v>148.64000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C16" s="6"/>
       <c r="D16" s="10"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
     </row>
   </sheetData>
